--- a/.templates/Data/Configs/ReporterConfig.xlsx
+++ b/.templates/Data/Configs/ReporterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\Documents\UiPath\LazyFramework\.templates\Data\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79B168-7F4C-4552-800B-B99D97EBDCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D619904-CA56-4E46-B5FB-B0D7E72DBEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="36780" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27360" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>LazyFramework_Reporter</t>
+  </si>
+  <si>
+    <t>IMAP_Port</t>
+  </si>
+  <si>
+    <t>The port of the IMAP server.</t>
+  </si>
+  <si>
+    <t>IMAP_Server</t>
+  </si>
+  <si>
+    <t>The URL of the IMAP server.</t>
   </si>
 </sst>
 </file>
@@ -542,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59017D05-C146-4F94-B0C7-FE1042A65B41}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,6 +863,34 @@
       </c>
       <c r="D7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
